--- a/database/industries/methanol/shefan/product/yearly.xlsx
+++ b/database/industries/methanol/shefan/product/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shefan\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shefan\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC054D9-B7B5-42C6-BFC3-055C9C09F5BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855F3ABA-62C4-406D-B08D-6ECE375C4323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="36">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>هیدروژن</t>
   </si>
   <si>
@@ -115,10 +115,13 @@
     <t>هزار تن / ریال</t>
   </si>
   <si>
+    <t>ریال / ریال</t>
+  </si>
+  <si>
+    <t>تن / ریال</t>
+  </si>
+  <si>
     <t>/ ریال</t>
-  </si>
-  <si>
-    <t>تن / ریال</t>
   </si>
   <si>
     <t>مبلغ بهای تمام شده</t>
@@ -584,12 +587,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -599,7 +602,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -611,7 +614,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -623,7 +626,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -633,7 +636,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -645,7 +648,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -657,7 +660,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -667,7 +670,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -689,7 +692,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -699,7 +702,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -707,23 +710,23 @@
         <v>11</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="9">
-        <v>84</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>12</v>
+      <c r="E10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="9">
+        <v>90259</v>
       </c>
       <c r="G10" s="9">
-        <v>90259</v>
-      </c>
-      <c r="H10" s="9">
         <v>71132</v>
       </c>
+      <c r="H10" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="I10" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
@@ -740,14 +743,14 @@
       <c r="G11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>12</v>
+      <c r="H11" s="11">
+        <v>104861</v>
       </c>
       <c r="I11" s="11">
-        <v>104861</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>97377</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
@@ -756,22 +759,22 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>72</v>
+        <v>75437</v>
       </c>
       <c r="F12" s="9">
-        <v>75437</v>
+        <v>76885</v>
       </c>
       <c r="G12" s="9">
-        <v>76885</v>
-      </c>
-      <c r="H12" s="9">
         <v>107784</v>
       </c>
+      <c r="H12" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="I12" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -788,14 +791,14 @@
       <c r="G13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>12</v>
+      <c r="H13" s="11">
+        <v>939799</v>
       </c>
       <c r="I13" s="11">
-        <v>939799</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>818801</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>15</v>
       </c>
@@ -804,22 +807,22 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>868</v>
+        <v>937142</v>
       </c>
       <c r="F14" s="9">
-        <v>937142</v>
+        <v>972122</v>
       </c>
       <c r="G14" s="9">
-        <v>972122</v>
-      </c>
-      <c r="H14" s="9">
         <v>963069</v>
       </c>
+      <c r="H14" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="I14" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>16</v>
       </c>
@@ -836,14 +839,14 @@
       <c r="G15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>12</v>
+      <c r="H15" s="11">
+        <v>144661</v>
       </c>
       <c r="I15" s="11">
-        <v>144661</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>131888</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
@@ -852,22 +855,22 @@
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>80</v>
+        <v>99311</v>
       </c>
       <c r="F16" s="9">
-        <v>99311</v>
+        <v>99234</v>
       </c>
       <c r="G16" s="9">
-        <v>99234</v>
-      </c>
-      <c r="H16" s="9">
         <v>148042</v>
       </c>
+      <c r="H16" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="I16" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>17</v>
       </c>
@@ -884,14 +887,14 @@
       <c r="G17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="11" t="s">
-        <v>12</v>
+      <c r="H17" s="11">
+        <v>38886</v>
       </c>
       <c r="I17" s="11">
-        <v>38886</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>38620</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>18</v>
       </c>
@@ -906,36 +909,36 @@
       <c r="G18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="9" t="s">
-        <v>12</v>
+      <c r="H18" s="9">
+        <v>0</v>
       </c>
       <c r="I18" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13">
-        <v>1104</v>
+        <v>1111890</v>
       </c>
       <c r="F19" s="13">
-        <v>1111890</v>
+        <v>1238500</v>
       </c>
       <c r="G19" s="13">
-        <v>1238500</v>
+        <v>1290027</v>
       </c>
       <c r="H19" s="13">
-        <v>1290027</v>
+        <v>1228207</v>
       </c>
       <c r="I19" s="13">
-        <v>1228207</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1086686</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -945,7 +948,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -955,7 +958,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -965,7 +968,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
         <v>20</v>
       </c>
@@ -987,7 +990,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -997,7 +1000,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>10</v>
       </c>
@@ -1005,8 +1008,8 @@
         <v>11</v>
       </c>
       <c r="D25" s="9"/>
-      <c r="E25" s="9">
-        <v>84</v>
+      <c r="E25" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>12</v>
@@ -1021,7 +1024,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>21</v>
       </c>
@@ -1029,14 +1032,14 @@
         <v>22</v>
       </c>
       <c r="D26" s="11"/>
-      <c r="E26" s="11" t="s">
-        <v>12</v>
+      <c r="E26" s="11">
+        <v>0</v>
       </c>
       <c r="F26" s="11">
         <v>0</v>
       </c>
-      <c r="G26" s="11">
-        <v>0</v>
+      <c r="G26" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H26" s="11" t="s">
         <v>12</v>
@@ -1045,7 +1048,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>21</v>
       </c>
@@ -1057,17 +1060,17 @@
       <c r="F27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="9">
-        <v>0</v>
+      <c r="G27" s="9">
+        <v>0</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>13</v>
       </c>
@@ -1081,17 +1084,17 @@
       <c r="F28" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="11" t="s">
-        <v>12</v>
+      <c r="G28" s="11">
+        <v>18763</v>
       </c>
       <c r="H28" s="11">
-        <v>18763</v>
+        <v>14487</v>
       </c>
       <c r="I28" s="11">
-        <v>14487</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13643</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>13</v>
       </c>
@@ -1100,14 +1103,14 @@
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F29" s="9">
-        <v>16</v>
-      </c>
-      <c r="G29" s="9">
         <v>18</v>
       </c>
+      <c r="G29" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="H29" s="9" t="s">
         <v>12</v>
       </c>
@@ -1115,7 +1118,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>15</v>
       </c>
@@ -1129,17 +1132,17 @@
       <c r="F30" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G30" s="11" t="s">
-        <v>12</v>
+      <c r="G30" s="11">
+        <v>910695</v>
       </c>
       <c r="H30" s="11">
-        <v>910695</v>
+        <v>824751</v>
       </c>
       <c r="I30" s="11">
-        <v>824751</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>799791</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>15</v>
       </c>
@@ -1147,15 +1150,15 @@
         <v>11</v>
       </c>
       <c r="D31" s="9"/>
-      <c r="E31" s="9" t="s">
-        <v>12</v>
+      <c r="E31" s="9">
+        <v>914</v>
       </c>
       <c r="F31" s="9">
-        <v>914</v>
-      </c>
-      <c r="G31" s="9">
         <v>919</v>
       </c>
+      <c r="G31" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="H31" s="9" t="s">
         <v>12</v>
       </c>
@@ -1163,7 +1166,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>16</v>
       </c>
@@ -1177,17 +1180,17 @@
       <c r="F32" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="11" t="s">
-        <v>12</v>
+      <c r="G32" s="11">
+        <v>154900</v>
       </c>
       <c r="H32" s="11">
-        <v>154900</v>
+        <v>139384</v>
       </c>
       <c r="I32" s="11">
-        <v>139384</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>131191</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>16</v>
       </c>
@@ -1195,15 +1198,15 @@
         <v>11</v>
       </c>
       <c r="D33" s="9"/>
-      <c r="E33" s="9" t="s">
-        <v>12</v>
+      <c r="E33" s="9">
+        <v>100</v>
       </c>
       <c r="F33" s="9">
-        <v>100</v>
-      </c>
-      <c r="G33" s="9">
         <v>95</v>
       </c>
+      <c r="G33" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="H33" s="9" t="s">
         <v>12</v>
       </c>
@@ -1211,7 +1214,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>23</v>
       </c>
@@ -1219,8 +1222,8 @@
         <v>11</v>
       </c>
       <c r="D34" s="11"/>
-      <c r="E34" s="11">
-        <v>76</v>
+      <c r="E34" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>12</v>
@@ -1235,7 +1238,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>24</v>
       </c>
@@ -1243,8 +1246,8 @@
         <v>11</v>
       </c>
       <c r="D35" s="9"/>
-      <c r="E35" s="9">
-        <v>182</v>
+      <c r="E35" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>12</v>
@@ -1259,7 +1262,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>25</v>
       </c>
@@ -1267,8 +1270,8 @@
         <v>11</v>
       </c>
       <c r="D36" s="11"/>
-      <c r="E36" s="11">
-        <v>614</v>
+      <c r="E36" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>12</v>
@@ -1283,7 +1286,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>26</v>
       </c>
@@ -1291,8 +1294,8 @@
         <v>11</v>
       </c>
       <c r="D37" s="9"/>
-      <c r="E37" s="9">
-        <v>8</v>
+      <c r="E37" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>12</v>
@@ -1307,7 +1310,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>17</v>
       </c>
@@ -1321,17 +1324,17 @@
       <c r="F38" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G38" s="11" t="s">
-        <v>12</v>
+      <c r="G38" s="11">
+        <v>70918</v>
       </c>
       <c r="H38" s="11">
-        <v>70918</v>
+        <v>38886</v>
       </c>
       <c r="I38" s="11">
-        <v>38886</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>38620</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>17</v>
       </c>
@@ -1339,15 +1342,15 @@
         <v>11</v>
       </c>
       <c r="D39" s="9"/>
-      <c r="E39" s="9" t="s">
-        <v>12</v>
+      <c r="E39" s="9">
+        <v>75</v>
       </c>
       <c r="F39" s="9">
-        <v>75</v>
-      </c>
-      <c r="G39" s="9">
         <v>90</v>
       </c>
+      <c r="G39" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="H39" s="9" t="s">
         <v>12</v>
       </c>
@@ -1355,14 +1358,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
-      <c r="E40" s="11" t="s">
-        <v>12</v>
+      <c r="E40" s="11">
+        <v>0</v>
       </c>
       <c r="F40" s="11">
         <v>0</v>
@@ -1377,29 +1380,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
       <c r="E41" s="15">
-        <v>975</v>
+        <v>1105</v>
       </c>
       <c r="F41" s="15">
-        <v>1105</v>
+        <v>1122</v>
       </c>
       <c r="G41" s="15">
-        <v>1122</v>
+        <v>1155276</v>
       </c>
       <c r="H41" s="15">
-        <v>1155276</v>
+        <v>1017508</v>
       </c>
       <c r="I41" s="15">
-        <v>1017508</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+        <v>983245</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1409,7 +1412,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1419,7 +1422,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1429,7 +1432,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
         <v>27</v>
       </c>
@@ -1451,7 +1454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1461,7 +1464,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>10</v>
       </c>
@@ -1469,8 +1472,8 @@
         <v>28</v>
       </c>
       <c r="D47" s="9"/>
-      <c r="E47" s="9">
-        <v>41560</v>
+      <c r="E47" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F47" s="9" t="s">
         <v>12</v>
@@ -1485,7 +1488,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>21</v>
       </c>
@@ -1493,8 +1496,8 @@
         <v>28</v>
       </c>
       <c r="D48" s="11"/>
-      <c r="E48" s="11" t="s">
-        <v>12</v>
+      <c r="E48" s="11">
+        <v>0</v>
       </c>
       <c r="F48" s="11">
         <v>0</v>
@@ -1502,14 +1505,14 @@
       <c r="G48" s="11">
         <v>0</v>
       </c>
-      <c r="H48" s="11">
-        <v>0</v>
+      <c r="H48" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="I48" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>13</v>
       </c>
@@ -1518,22 +1521,22 @@
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9">
-        <v>105840</v>
+        <v>269383</v>
       </c>
       <c r="F49" s="9">
-        <v>269383</v>
+        <v>507202</v>
       </c>
       <c r="G49" s="9">
-        <v>507202</v>
+        <v>494490</v>
       </c>
       <c r="H49" s="9">
-        <v>494490</v>
+        <v>1053829</v>
       </c>
       <c r="I49" s="9">
-        <v>1053829</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1647923</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>15</v>
       </c>
@@ -1541,23 +1544,23 @@
         <v>28</v>
       </c>
       <c r="D50" s="11"/>
-      <c r="E50" s="11" t="s">
-        <v>12</v>
+      <c r="E50" s="11">
+        <v>22213947</v>
       </c>
       <c r="F50" s="11">
-        <v>22213947</v>
+        <v>23944876</v>
       </c>
       <c r="G50" s="11">
-        <v>23944876</v>
+        <v>41742943</v>
       </c>
       <c r="H50" s="11">
-        <v>41742943</v>
+        <v>64091724</v>
       </c>
       <c r="I50" s="11">
-        <v>64091724</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+        <v>64084515</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>16</v>
       </c>
@@ -1565,23 +1568,23 @@
         <v>28</v>
       </c>
       <c r="D51" s="9"/>
-      <c r="E51" s="9" t="s">
-        <v>12</v>
+      <c r="E51" s="9">
+        <v>3970890</v>
       </c>
       <c r="F51" s="9">
-        <v>3970890</v>
+        <v>4280980</v>
       </c>
       <c r="G51" s="9">
-        <v>4280980</v>
+        <v>12579055</v>
       </c>
       <c r="H51" s="9">
-        <v>12579055</v>
+        <v>28504882</v>
       </c>
       <c r="I51" s="9">
-        <v>28504882</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16845710</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>23</v>
       </c>
@@ -1589,8 +1592,8 @@
         <v>28</v>
       </c>
       <c r="D52" s="11"/>
-      <c r="E52" s="11">
-        <v>1382455</v>
+      <c r="E52" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F52" s="11" t="s">
         <v>12</v>
@@ -1605,7 +1608,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>24</v>
       </c>
@@ -1613,8 +1616,8 @@
         <v>28</v>
       </c>
       <c r="D53" s="9"/>
-      <c r="E53" s="9">
-        <v>1857636</v>
+      <c r="E53" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F53" s="9" t="s">
         <v>12</v>
@@ -1629,7 +1632,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>25</v>
       </c>
@@ -1637,8 +1640,8 @@
         <v>28</v>
       </c>
       <c r="D54" s="11"/>
-      <c r="E54" s="11">
-        <v>8443749</v>
+      <c r="E54" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F54" s="11" t="s">
         <v>12</v>
@@ -1653,7 +1656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>26</v>
       </c>
@@ -1661,8 +1664,8 @@
         <v>28</v>
       </c>
       <c r="D55" s="9"/>
-      <c r="E55" s="9">
-        <v>159336</v>
+      <c r="E55" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F55" s="9" t="s">
         <v>12</v>
@@ -1677,7 +1680,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>17</v>
       </c>
@@ -1685,23 +1688,23 @@
         <v>28</v>
       </c>
       <c r="D56" s="11"/>
-      <c r="E56" s="11" t="s">
-        <v>12</v>
+      <c r="E56" s="11">
+        <v>50788</v>
       </c>
       <c r="F56" s="11">
-        <v>50788</v>
+        <v>412839</v>
       </c>
       <c r="G56" s="11">
-        <v>412839</v>
+        <v>393453</v>
       </c>
       <c r="H56" s="11">
-        <v>393453</v>
+        <v>348254</v>
       </c>
       <c r="I56" s="11">
-        <v>348254</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>318275</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>18</v>
       </c>
@@ -1709,8 +1712,8 @@
         <v>28</v>
       </c>
       <c r="D57" s="9"/>
-      <c r="E57" s="9" t="s">
-        <v>12</v>
+      <c r="E57" s="9">
+        <v>0</v>
       </c>
       <c r="F57" s="9">
         <v>0</v>
@@ -1725,29 +1728,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
-        <v>11990576</v>
+        <v>26505008</v>
       </c>
       <c r="F58" s="13">
-        <v>26505008</v>
+        <v>29145897</v>
       </c>
       <c r="G58" s="13">
-        <v>29145897</v>
+        <v>55209941</v>
       </c>
       <c r="H58" s="13">
-        <v>55209941</v>
+        <v>93998689</v>
       </c>
       <c r="I58" s="13">
-        <v>93998689</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>82896423</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1757,7 +1760,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1767,7 +1770,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1777,7 +1780,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
         <v>29</v>
       </c>
@@ -1799,7 +1802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1809,7 +1812,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>10</v>
       </c>
@@ -1817,8 +1820,8 @@
         <v>30</v>
       </c>
       <c r="D64" s="9"/>
-      <c r="E64" s="9">
-        <v>494761905</v>
+      <c r="E64" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F64" s="9" t="s">
         <v>12</v>
@@ -1833,7 +1836,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>21</v>
       </c>
@@ -1841,8 +1844,8 @@
         <v>31</v>
       </c>
       <c r="D65" s="11"/>
-      <c r="E65" s="11" t="s">
-        <v>12</v>
+      <c r="E65" s="11">
+        <v>0</v>
       </c>
       <c r="F65" s="11">
         <v>0</v>
@@ -1850,14 +1853,14 @@
       <c r="G65" s="11">
         <v>0</v>
       </c>
-      <c r="H65" s="11">
-        <v>0</v>
+      <c r="H65" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="I65" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>13</v>
       </c>
@@ -1866,22 +1869,22 @@
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9">
-        <v>9621818182</v>
+        <v>16836437500</v>
       </c>
       <c r="F66" s="9">
-        <v>16836437500</v>
+        <v>28177888889</v>
       </c>
       <c r="G66" s="9">
-        <v>28177888889</v>
+        <v>26354528</v>
       </c>
       <c r="H66" s="9">
-        <v>26354528</v>
+        <v>72743080</v>
       </c>
       <c r="I66" s="9">
-        <v>72743080</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+        <v>120788903</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>15</v>
       </c>
@@ -1889,23 +1892,23 @@
         <v>32</v>
       </c>
       <c r="D67" s="11"/>
-      <c r="E67" s="11" t="s">
-        <v>12</v>
+      <c r="E67" s="11">
+        <v>24304099562</v>
       </c>
       <c r="F67" s="11">
-        <v>24304099562</v>
+        <v>26055360174</v>
       </c>
       <c r="G67" s="11">
-        <v>26055360174</v>
+        <v>45836359</v>
       </c>
       <c r="H67" s="11">
-        <v>45836359</v>
+        <v>77710393</v>
       </c>
       <c r="I67" s="11">
-        <v>77710393</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+        <v>80126577</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>16</v>
       </c>
@@ -1913,23 +1916,23 @@
         <v>32</v>
       </c>
       <c r="D68" s="9"/>
-      <c r="E68" s="9" t="s">
-        <v>12</v>
+      <c r="E68" s="9">
+        <v>39708900000</v>
       </c>
       <c r="F68" s="9">
-        <v>39708900000</v>
+        <v>45062947368</v>
       </c>
       <c r="G68" s="9">
-        <v>45062947368</v>
+        <v>81207586</v>
       </c>
       <c r="H68" s="9">
-        <v>81207586</v>
+        <v>204506127</v>
       </c>
       <c r="I68" s="9">
-        <v>204506127</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+        <v>128405988</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>23</v>
       </c>
@@ -1937,8 +1940,8 @@
         <v>30</v>
       </c>
       <c r="D69" s="11"/>
-      <c r="E69" s="11">
-        <v>18190197368</v>
+      <c r="E69" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F69" s="11" t="s">
         <v>12</v>
@@ -1953,7 +1956,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>24</v>
       </c>
@@ -1961,8 +1964,8 @@
         <v>30</v>
       </c>
       <c r="D70" s="9"/>
-      <c r="E70" s="9">
-        <v>10206791209</v>
+      <c r="E70" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F70" s="9" t="s">
         <v>12</v>
@@ -1977,7 +1980,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>25</v>
       </c>
@@ -1985,8 +1988,8 @@
         <v>30</v>
       </c>
       <c r="D71" s="11"/>
-      <c r="E71" s="11">
-        <v>13752034202</v>
+      <c r="E71" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F71" s="11" t="s">
         <v>12</v>
@@ -2001,7 +2004,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>26</v>
       </c>
@@ -2009,8 +2012,8 @@
         <v>30</v>
       </c>
       <c r="D72" s="9"/>
-      <c r="E72" s="9">
-        <v>19917000000</v>
+      <c r="E72" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F72" s="9" t="s">
         <v>12</v>
@@ -2025,7 +2028,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>17</v>
       </c>
@@ -2033,32 +2036,32 @@
         <v>32</v>
       </c>
       <c r="D73" s="11"/>
-      <c r="E73" s="11" t="s">
-        <v>12</v>
+      <c r="E73" s="11">
+        <v>677173333</v>
       </c>
       <c r="F73" s="11">
-        <v>677173333</v>
+        <v>4587100000</v>
       </c>
       <c r="G73" s="11">
-        <v>4587100000</v>
+        <v>5547999</v>
       </c>
       <c r="H73" s="11">
-        <v>5547999</v>
+        <v>8955768</v>
       </c>
       <c r="I73" s="11">
-        <v>8955768</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8241196</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D74" s="9"/>
-      <c r="E74" s="9" t="s">
-        <v>12</v>
+      <c r="E74" s="9">
+        <v>0</v>
       </c>
       <c r="F74" s="9">
         <v>0</v>
@@ -2073,7 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2083,7 +2086,7 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2093,7 +2096,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2103,9 +2106,9 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B78" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -2125,7 +2128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2135,7 +2138,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>21</v>
       </c>
@@ -2143,8 +2146,8 @@
         <v>28</v>
       </c>
       <c r="D80" s="9"/>
-      <c r="E80" s="9" t="s">
-        <v>12</v>
+      <c r="E80" s="9">
+        <v>0</v>
       </c>
       <c r="F80" s="9">
         <v>0</v>
@@ -2152,14 +2155,14 @@
       <c r="G80" s="9">
         <v>0</v>
       </c>
-      <c r="H80" s="9">
-        <v>0</v>
+      <c r="H80" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I80" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>13</v>
       </c>
@@ -2167,23 +2170,23 @@
         <v>28</v>
       </c>
       <c r="D81" s="11"/>
-      <c r="E81" s="11" t="s">
-        <v>12</v>
+      <c r="E81" s="11">
+        <v>-259875</v>
       </c>
       <c r="F81" s="11">
-        <v>-259875</v>
+        <v>-335341</v>
       </c>
       <c r="G81" s="11">
-        <v>-335341</v>
+        <v>-456677</v>
       </c>
       <c r="H81" s="11">
-        <v>-456677</v>
+        <v>-1018870</v>
       </c>
       <c r="I81" s="11">
-        <v>-1018870</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1065697</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
         <v>15</v>
       </c>
@@ -2191,23 +2194,23 @@
         <v>28</v>
       </c>
       <c r="D82" s="9"/>
-      <c r="E82" s="9" t="s">
-        <v>12</v>
+      <c r="E82" s="9">
+        <v>-8341649</v>
       </c>
       <c r="F82" s="9">
-        <v>-8341649</v>
+        <v>-9979628</v>
       </c>
       <c r="G82" s="9">
-        <v>-9979628</v>
+        <v>-17457516</v>
       </c>
       <c r="H82" s="9">
-        <v>-17457516</v>
+        <v>-43972624</v>
       </c>
       <c r="I82" s="9">
-        <v>-43972624</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-43937986</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>16</v>
       </c>
@@ -2215,23 +2218,23 @@
         <v>28</v>
       </c>
       <c r="D83" s="11"/>
-      <c r="E83" s="11" t="s">
-        <v>12</v>
+      <c r="E83" s="11">
+        <v>-2020895</v>
       </c>
       <c r="F83" s="11">
-        <v>-2020895</v>
+        <v>-2624235</v>
       </c>
       <c r="G83" s="11">
-        <v>-2624235</v>
+        <v>-5664251</v>
       </c>
       <c r="H83" s="11">
-        <v>-5664251</v>
+        <v>-13558697</v>
       </c>
       <c r="I83" s="11">
-        <v>-13558697</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-15490061</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>17</v>
       </c>
@@ -2239,23 +2242,23 @@
         <v>28</v>
       </c>
       <c r="D84" s="9"/>
-      <c r="E84" s="9" t="s">
-        <v>12</v>
+      <c r="E84" s="9">
+        <v>-29436</v>
       </c>
       <c r="F84" s="9">
-        <v>-29436</v>
+        <v>-231857</v>
       </c>
       <c r="G84" s="9">
-        <v>-231857</v>
+        <v>-241955</v>
       </c>
       <c r="H84" s="9">
-        <v>-241955</v>
+        <v>-248994</v>
       </c>
       <c r="I84" s="9">
-        <v>-248994</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-197229</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>18</v>
       </c>
@@ -2263,8 +2266,8 @@
         <v>28</v>
       </c>
       <c r="D85" s="11"/>
-      <c r="E85" s="11" t="s">
-        <v>12</v>
+      <c r="E85" s="11">
+        <v>0</v>
       </c>
       <c r="F85" s="11">
         <v>0</v>
@@ -2279,29 +2282,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C86" s="15"/>
       <c r="D86" s="15"/>
       <c r="E86" s="15">
-        <v>0</v>
+        <v>-10651855</v>
       </c>
       <c r="F86" s="15">
-        <v>-10651855</v>
+        <v>-13171061</v>
       </c>
       <c r="G86" s="15">
-        <v>-13171061</v>
+        <v>-23820399</v>
       </c>
       <c r="H86" s="15">
-        <v>-23820399</v>
+        <v>-58799185</v>
       </c>
       <c r="I86" s="15">
-        <v>-58799185</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-60690973</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2311,7 +2314,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2321,7 +2324,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2331,9 +2334,9 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B90" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -2353,7 +2356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2363,7 +2366,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>21</v>
       </c>
@@ -2374,20 +2377,20 @@
       <c r="E92" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F92" s="9" t="s">
-        <v>12</v>
+      <c r="F92" s="9">
+        <v>0</v>
       </c>
       <c r="G92" s="9">
         <v>0</v>
       </c>
-      <c r="H92" s="9">
-        <v>0</v>
+      <c r="H92" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I92" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>13</v>
       </c>
@@ -2395,23 +2398,23 @@
         <v>28</v>
       </c>
       <c r="D93" s="11"/>
-      <c r="E93" s="11" t="s">
-        <v>12</v>
+      <c r="E93" s="11">
+        <v>9508</v>
       </c>
       <c r="F93" s="11">
-        <v>9508</v>
+        <v>171861</v>
       </c>
       <c r="G93" s="11">
-        <v>171861</v>
+        <v>37813</v>
       </c>
       <c r="H93" s="11">
-        <v>37813</v>
+        <v>34959</v>
       </c>
       <c r="I93" s="11">
-        <v>34959</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+        <v>582226</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>15</v>
       </c>
@@ -2419,23 +2422,23 @@
         <v>28</v>
       </c>
       <c r="D94" s="9"/>
-      <c r="E94" s="9" t="s">
-        <v>12</v>
+      <c r="E94" s="9">
+        <v>13872298</v>
       </c>
       <c r="F94" s="9">
-        <v>13872298</v>
+        <v>13965248</v>
       </c>
       <c r="G94" s="9">
-        <v>13965248</v>
+        <v>24285427</v>
       </c>
       <c r="H94" s="9">
-        <v>24285427</v>
+        <v>20119100</v>
       </c>
       <c r="I94" s="9">
-        <v>20119100</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20146529</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>16</v>
       </c>
@@ -2443,23 +2446,23 @@
         <v>28</v>
       </c>
       <c r="D95" s="11"/>
-      <c r="E95" s="11" t="s">
-        <v>12</v>
+      <c r="E95" s="11">
+        <v>1949995</v>
       </c>
       <c r="F95" s="11">
-        <v>1949995</v>
+        <v>1656745</v>
       </c>
       <c r="G95" s="11">
-        <v>1656745</v>
+        <v>6914804</v>
       </c>
       <c r="H95" s="11">
-        <v>6914804</v>
+        <v>14946185</v>
       </c>
       <c r="I95" s="11">
-        <v>14946185</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1355649</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>17</v>
       </c>
@@ -2467,23 +2470,23 @@
         <v>28</v>
       </c>
       <c r="D96" s="9"/>
-      <c r="E96" s="9" t="s">
-        <v>12</v>
+      <c r="E96" s="9">
+        <v>21352</v>
       </c>
       <c r="F96" s="9">
-        <v>21352</v>
+        <v>180982</v>
       </c>
       <c r="G96" s="9">
-        <v>180982</v>
+        <v>151498</v>
       </c>
       <c r="H96" s="9">
-        <v>151498</v>
+        <v>99260</v>
       </c>
       <c r="I96" s="9">
-        <v>99260</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+        <v>121046</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>18</v>
       </c>
@@ -2494,8 +2497,8 @@
       <c r="E97" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F97" s="11" t="s">
-        <v>12</v>
+      <c r="F97" s="11">
+        <v>0</v>
       </c>
       <c r="G97" s="11">
         <v>0</v>
@@ -2507,26 +2510,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C98" s="15"/>
       <c r="D98" s="15"/>
       <c r="E98" s="15">
-        <v>0</v>
+        <v>15853153</v>
       </c>
       <c r="F98" s="15">
-        <v>15853153</v>
+        <v>15974836</v>
       </c>
       <c r="G98" s="15">
-        <v>15974836</v>
+        <v>31389542</v>
       </c>
       <c r="H98" s="15">
-        <v>31389542</v>
+        <v>35199504</v>
       </c>
       <c r="I98" s="15">
-        <v>35199504</v>
+        <v>22205450</v>
       </c>
     </row>
   </sheetData>
